--- a/biology/Zoologie/Ceratobatrachinae/Ceratobatrachinae.xlsx
+++ b/biology/Zoologie/Ceratobatrachinae/Ceratobatrachinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Ceratobatrachinae sont une sous-famille d'amphibiens de la famille des Ceratobatrachidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ceratobatrachinae sont une sous-famille d'amphibiens de la famille des Ceratobatrachidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces des deux genres de cette sous-famille se rencontrent en Asie du Sud-Est et en Océanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces des deux genres de cette sous-famille se rencontrent en Asie du Sud-Est et en Océanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (10 juillet 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (10 juillet 2015) :
 Cornufer Tschudi, 1838
 Platymantis Günther, 1858</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulenger, 1884 : Diagnoses of new reptiles and batrachians from the Solomon Islands, collected and presented to the British Museum by H. B. Guppy, Esq., M.B., H.M.S. Lark. Proceedings of the Zoological Society of London, vol. 1884, p. 210-213 (texte intégral).</t>
         </is>
